--- a/docs/spring-boot-questions.xlsx
+++ b/docs/spring-boot-questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\spring_professional_certification\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E2680D-98EE-481A-A950-C05CF65A55DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317C69EE-3033-4A3B-A8FA-E3C2E3475D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,6 +757,10 @@
         <f>SUM(E2:E14)</f>
         <v>30.96</v>
       </c>
+      <c r="F15">
+        <f>SUM(F2:F14)</f>
+        <v>19.04</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
